--- a/tutorials/data/hp_dc_data.xlsx
+++ b/tutorials/data/hp_dc_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nova174\PycharmProjects\pandaprosumer\tutorials\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mena138\Projects\SenergyNets\pandaprosumer\tutorials\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9E890B-D55B-4484-9A57-6A82AB82E19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F83177-F8E3-40EC-BB02-7B311612727C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,8 +407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +455,7 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>30</v>
@@ -475,7 +475,7 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -495,7 +495,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -515,7 +515,7 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>30</v>
@@ -535,7 +535,7 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>30</v>
@@ -555,7 +555,7 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>30</v>
@@ -575,7 +575,7 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <v>30</v>
@@ -595,7 +595,7 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>30</v>
@@ -615,7 +615,7 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F10">
         <v>30</v>
@@ -635,7 +635,7 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F11">
         <v>30</v>
@@ -655,7 +655,7 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <v>30</v>
@@ -675,7 +675,7 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F13">
         <v>30</v>
@@ -695,7 +695,7 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <v>30</v>
@@ -715,7 +715,7 @@
         <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F15">
         <v>30</v>
@@ -735,7 +735,7 @@
         <v>20</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F16">
         <v>30</v>
@@ -755,7 +755,7 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F17">
         <v>30</v>
@@ -775,7 +775,7 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F18">
         <v>30</v>
@@ -795,7 +795,7 @@
         <v>20</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F19">
         <v>30</v>
@@ -815,7 +815,7 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -835,7 +835,7 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F21">
         <v>30</v>
@@ -855,7 +855,7 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F22">
         <v>30</v>
@@ -875,7 +875,7 @@
         <v>20</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F23">
         <v>30</v>
@@ -895,7 +895,7 @@
         <v>20</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F24">
         <v>30</v>
@@ -915,7 +915,7 @@
         <v>20</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F25">
         <v>30</v>
@@ -935,7 +935,7 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F26">
         <v>30</v>
@@ -955,7 +955,7 @@
         <v>20</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F27">
         <v>30</v>
@@ -975,7 +975,7 @@
         <v>20</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F28">
         <v>30</v>
@@ -995,7 +995,7 @@
         <v>20</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F29">
         <v>30</v>
@@ -1015,7 +1015,7 @@
         <v>20</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F30">
         <v>30</v>
@@ -1035,7 +1035,7 @@
         <v>20</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F31">
         <v>30</v>
@@ -1055,7 +1055,7 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F32">
         <v>30</v>
@@ -1075,7 +1075,7 @@
         <v>20</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F33">
         <v>30</v>
@@ -1095,7 +1095,7 @@
         <v>20</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F34">
         <v>30</v>
@@ -1115,7 +1115,7 @@
         <v>20</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F35">
         <v>30</v>
@@ -1135,7 +1135,7 @@
         <v>20</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F36">
         <v>30</v>
@@ -1155,7 +1155,7 @@
         <v>20</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F37">
         <v>30</v>
@@ -1175,7 +1175,7 @@
         <v>20</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F38">
         <v>30</v>
@@ -1195,7 +1195,7 @@
         <v>20</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F39">
         <v>30</v>
@@ -1215,7 +1215,7 @@
         <v>20</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F40">
         <v>30</v>
@@ -1235,7 +1235,7 @@
         <v>20</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F41">
         <v>30</v>
@@ -1255,7 +1255,7 @@
         <v>20</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F42">
         <v>30</v>
@@ -1275,7 +1275,7 @@
         <v>20</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F43">
         <v>30</v>
@@ -1295,7 +1295,7 @@
         <v>20</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F44">
         <v>30</v>
@@ -1315,7 +1315,7 @@
         <v>20</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F45">
         <v>30</v>
@@ -1335,7 +1335,7 @@
         <v>20</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F46">
         <v>30</v>
@@ -1355,7 +1355,7 @@
         <v>20</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F47">
         <v>30</v>
@@ -1375,7 +1375,7 @@
         <v>20</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F48">
         <v>30</v>
@@ -1395,7 +1395,7 @@
         <v>20</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F49">
         <v>30</v>
@@ -1415,7 +1415,7 @@
         <v>20</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F50">
         <v>30</v>
@@ -1435,7 +1435,7 @@
         <v>20</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F51">
         <v>30</v>
@@ -1455,7 +1455,7 @@
         <v>20</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F52">
         <v>30</v>
@@ -1475,7 +1475,7 @@
         <v>20</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F53">
         <v>30</v>
@@ -1495,7 +1495,7 @@
         <v>20</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F54">
         <v>30</v>
@@ -1515,7 +1515,7 @@
         <v>20</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F55">
         <v>30</v>
@@ -1535,7 +1535,7 @@
         <v>20</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F56">
         <v>30</v>
@@ -1555,7 +1555,7 @@
         <v>20</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F57">
         <v>30</v>
@@ -1575,7 +1575,7 @@
         <v>20</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F58">
         <v>30</v>
@@ -1595,7 +1595,7 @@
         <v>20</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F59">
         <v>30</v>
@@ -1615,7 +1615,7 @@
         <v>20</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F60">
         <v>30</v>
@@ -1635,7 +1635,7 @@
         <v>20</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F61">
         <v>30</v>
@@ -1655,7 +1655,7 @@
         <v>20</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F62">
         <v>30</v>
@@ -1675,7 +1675,7 @@
         <v>20</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F63">
         <v>30</v>
@@ -1695,7 +1695,7 @@
         <v>20</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F64">
         <v>30</v>
@@ -1715,7 +1715,7 @@
         <v>20</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F65">
         <v>30</v>
@@ -1735,7 +1735,7 @@
         <v>20</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F66">
         <v>30</v>
@@ -1755,7 +1755,7 @@
         <v>20</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F67">
         <v>30</v>
@@ -1775,7 +1775,7 @@
         <v>20</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F68">
         <v>30</v>
@@ -1795,7 +1795,7 @@
         <v>20</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F69">
         <v>30</v>
@@ -1815,7 +1815,7 @@
         <v>20</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F70">
         <v>30</v>
@@ -1835,7 +1835,7 @@
         <v>20</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F71">
         <v>30</v>
@@ -1855,7 +1855,7 @@
         <v>20</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F72">
         <v>30</v>
@@ -1875,7 +1875,7 @@
         <v>20</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F73">
         <v>30</v>
@@ -1895,7 +1895,7 @@
         <v>20</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F74">
         <v>30</v>
@@ -1915,7 +1915,7 @@
         <v>20</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F75">
         <v>30</v>
@@ -1935,7 +1935,7 @@
         <v>20</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F76">
         <v>30</v>
@@ -1955,7 +1955,7 @@
         <v>20</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F77">
         <v>30</v>
@@ -1975,7 +1975,7 @@
         <v>20</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F78">
         <v>30</v>
@@ -1995,7 +1995,7 @@
         <v>20</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F79">
         <v>30</v>
@@ -2015,7 +2015,7 @@
         <v>20</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F80">
         <v>30</v>
@@ -2035,7 +2035,7 @@
         <v>20</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F81">
         <v>30</v>
@@ -2055,7 +2055,7 @@
         <v>20</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F82">
         <v>30</v>
@@ -2075,7 +2075,7 @@
         <v>20</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F83">
         <v>30</v>
@@ -2095,7 +2095,7 @@
         <v>20</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F84">
         <v>30</v>
@@ -2115,7 +2115,7 @@
         <v>20</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F85">
         <v>30</v>
@@ -2135,7 +2135,7 @@
         <v>20</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F86">
         <v>30</v>
@@ -2155,7 +2155,7 @@
         <v>20</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F87">
         <v>30</v>
@@ -2175,7 +2175,7 @@
         <v>20</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F88">
         <v>30</v>
@@ -2195,7 +2195,7 @@
         <v>20</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F89">
         <v>30</v>
@@ -2215,7 +2215,7 @@
         <v>20</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F90">
         <v>30</v>
@@ -2235,7 +2235,7 @@
         <v>20</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F91">
         <v>30</v>
@@ -2255,7 +2255,7 @@
         <v>20</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F92">
         <v>30</v>
@@ -2275,7 +2275,7 @@
         <v>20</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F93">
         <v>30</v>
@@ -2295,7 +2295,7 @@
         <v>20</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F94">
         <v>30</v>
@@ -2315,7 +2315,7 @@
         <v>20</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F95">
         <v>30</v>
@@ -2335,7 +2335,7 @@
         <v>20</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F96">
         <v>30</v>
@@ -2355,7 +2355,7 @@
         <v>20</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F97">
         <v>30</v>
